--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA67A19-BC3E-482B-9E6A-E9F74C125D77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E90597-5CBA-4521-AE3D-B846FFCD4A75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Flipped Labs</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>XXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>Syntactic</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -383,6 +386,8 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.265625" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -418,11 +423,11 @@
       </c>
       <c r="E4">
         <f>SUM(B2:B30)</f>
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="G4">
         <f>E4/1350</f>
-        <v>0.42592592592592593</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -437,11 +442,11 @@
       </c>
       <c r="E5">
         <f>AVERAGE(B2:B30)</f>
-        <v>95.833333333333329</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="G5">
         <f>E4/1200</f>
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -458,6 +463,14 @@
       </c>
       <c r="B7">
         <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E90597-5CBA-4521-AE3D-B846FFCD4A75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE5338-8D99-4E34-9E8F-24B4BBAD3B81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Flipped Labs</t>
   </si>
@@ -58,6 +58,48 @@
   </si>
   <si>
     <t>Syntactic</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>out of 1350</t>
+  </si>
+  <si>
+    <t>out of 1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project </t>
+  </si>
+  <si>
+    <t>300 Points Total</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>200 Points</t>
+  </si>
+  <si>
+    <t>Final Exam</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Points Needed</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Out of 1200</t>
+  </si>
+  <si>
+    <t>Out of 12350</t>
   </si>
 </sst>
 </file>
@@ -375,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -388,30 +430,52 @@
     <col min="4" max="4" width="10.73046875" customWidth="1"/>
     <col min="5" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="10" max="10" width="11.53125" customWidth="1"/>
+    <col min="11" max="11" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -423,14 +487,17 @@
       </c>
       <c r="E4">
         <f>SUM(B2:B30)</f>
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="G4">
         <f>E4/1350</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -442,14 +509,17 @@
       </c>
       <c r="E5">
         <f>AVERAGE(B2:B30)</f>
-        <v>96.428571428571431</v>
+        <v>96.875</v>
       </c>
       <c r="G5">
         <f>E4/1200</f>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -457,23 +527,75 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f>1200*0.9</f>
+        <v>1080</v>
+      </c>
+      <c r="H9">
+        <f>1200*0.8</f>
+        <v>960</v>
+      </c>
+      <c r="I9">
+        <f>1200*0.7</f>
+        <v>840</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <f>1350*0.9</f>
+        <v>1215</v>
+      </c>
+      <c r="H10">
+        <f>1350*0.8</f>
+        <v>1080</v>
+      </c>
+      <c r="I10">
+        <f>1350*0.7</f>
+        <v>944.99999999999989</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
       </c>

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE5338-8D99-4E34-9E8F-24B4BBAD3B81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF7459-79F1-468B-8BEA-07E0EE02A794}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Flipped Labs</t>
   </si>
@@ -99,7 +99,13 @@
     <t>Out of 1200</t>
   </si>
   <si>
-    <t>Out of 12350</t>
+    <t>Out of 1350</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>(To Date)</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -486,12 +492,12 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <f>SUM(B2:B30)</f>
-        <v>775</v>
+        <f>SUM(B2:B30)*0.5</f>
+        <v>387.5</v>
       </c>
       <c r="G4">
         <f>E4/1350</f>
-        <v>0.57407407407407407</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -513,7 +519,7 @@
       </c>
       <c r="G5">
         <f>E4/1200</f>
-        <v>0.64583333333333337</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -562,6 +568,13 @@
       <c r="B9">
         <v>100</v>
       </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f>E4</f>
+        <v>387.5</v>
+      </c>
       <c r="G9">
         <f>1200*0.9</f>
         <v>1080</v>
@@ -579,6 +592,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
       <c r="G10">
         <f>1350*0.9</f>
         <v>1215</v>

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF7459-79F1-468B-8BEA-07E0EE02A794}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35731D0B-C3EB-4F4A-A439-3472B1FE8845}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,9 +423,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -442,7 +442,7 @@
     <col min="11" max="11" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +452,12 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1">
+        <f>0.82*300</f>
+        <v>245.99999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -467,7 +471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,7 +485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -496,14 +500,14 @@
         <v>387.5</v>
       </c>
       <c r="G4">
-        <f>E4/1350</f>
-        <v>0.28703703703703703</v>
+        <f>E9/1350</f>
+        <v>0.46925925925925926</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -518,14 +522,14 @@
         <v>96.875</v>
       </c>
       <c r="G5">
-        <f>E4/1200</f>
-        <v>0.32291666666666669</v>
+        <f>E9/1200</f>
+        <v>0.5279166666666667</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -533,7 +537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -544,7 +548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -561,7 +565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -572,8 +576,8 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <f>E4</f>
-        <v>387.5</v>
+        <f>E4+L1</f>
+        <v>633.5</v>
       </c>
       <c r="G9">
         <f>1200*0.9</f>
@@ -591,7 +595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>26</v>
       </c>
@@ -611,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
       </c>

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35731D0B-C3EB-4F4A-A439-3472B1FE8845}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F6F52-E491-4F84-B8F5-735D34858E29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Flipped Total</t>
   </si>
   <si>
-    <t>XXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
     <t>Syntactic</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>(To Date)</t>
+  </si>
+  <si>
+    <t>Flipped Labs Avg</t>
   </si>
 </sst>
 </file>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -447,14 +447,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1">
-        <f>0.82*300</f>
-        <v>245.99999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -465,10 +461,14 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="L2">
+        <f>(53.5/60)*300</f>
+        <v>267.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -479,10 +479,10 @@
         <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -496,15 +496,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <f>SUM(B2:B30)*0.5</f>
+        <f>SUM(B2:B14)*0.5</f>
         <v>387.5</v>
       </c>
       <c r="G4">
         <f>E9/1350</f>
-        <v>0.46925925925925926</v>
+        <v>0.48518518518518516</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -518,15 +518,15 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(B2:B30)</f>
+        <f>AVERAGE(B2:B14)</f>
         <v>96.875</v>
       </c>
       <c r="G5">
         <f>E9/1200</f>
-        <v>0.5279166666666667</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -545,39 +545,39 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <f>E4+L1</f>
-        <v>633.5</v>
+        <f>E4+L2</f>
+        <v>655</v>
       </c>
       <c r="G9">
         <f>1200*0.9</f>
@@ -592,12 +592,12 @@
         <v>840</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <f>1350*0.9</f>
@@ -612,12 +612,16 @@
         <v>944.99999999999989</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B2:B9)</f>
+        <v>96.875</v>
       </c>
     </row>
   </sheetData>

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F6F52-E491-4F84-B8F5-735D34858E29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BB371-C0F0-4816-98B2-528135C15E96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Flipped Labs</t>
   </si>
@@ -106,6 +107,18 @@
   </si>
   <si>
     <t>Flipped Labs Avg</t>
+  </si>
+  <si>
+    <t>Flipped 11</t>
+  </si>
+  <si>
+    <t>Java Abstraction</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Flipped 12</t>
   </si>
 </sst>
 </file>
@@ -426,7 +439,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,11 +510,11 @@
       </c>
       <c r="E4">
         <f>SUM(B2:B14)*0.5</f>
-        <v>387.5</v>
+        <v>487.5</v>
       </c>
       <c r="G4">
         <f>E9/1350</f>
-        <v>0.48518518518518516</v>
+        <v>0.55925925925925923</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -519,11 +532,11 @@
       </c>
       <c r="E5">
         <f>AVERAGE(B2:B14)</f>
-        <v>96.875</v>
+        <v>97.5</v>
       </c>
       <c r="G5">
         <f>E9/1200</f>
-        <v>0.54583333333333328</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -577,7 +590,7 @@
       </c>
       <c r="E9">
         <f>E4+L2</f>
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="G9">
         <f>1200*0.9</f>
@@ -596,6 +609,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
@@ -615,13 +634,31 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <f>AVERAGE(B2:B9)</f>
-        <v>96.875</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>97.5</v>
       </c>
     </row>
   </sheetData>

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BB371-C0F0-4816-98B2-528135C15E96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801864FB-30E4-4AF3-8E4E-BB132D0BCD04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Out of 1200</t>
-  </si>
-  <si>
     <t>Out of 1350</t>
   </si>
   <si>
@@ -118,7 +115,10 @@
     <t>Sorting</t>
   </si>
   <si>
-    <t>Flipped 12</t>
+    <t>Java Generics</t>
+  </si>
+  <si>
+    <t>out of 1300</t>
   </si>
 </sst>
 </file>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -455,7 +455,7 @@
     <col min="11" max="11" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +465,12 @@
       <c r="K1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L1">
+        <f>300*0.85</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -480,11 +484,15 @@
         <v>16</v>
       </c>
       <c r="L2">
-        <f>(53.5/60)*300</f>
-        <v>267.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <f>(53.5/60)*200</f>
+        <v>178.33333333333334</v>
+      </c>
+      <c r="M2">
+        <f>L2/200</f>
+        <v>0.89166666666666672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -498,7 +506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -510,17 +518,21 @@
       </c>
       <c r="E4">
         <f>SUM(B2:B14)*0.5</f>
-        <v>487.5</v>
+        <v>587.5</v>
       </c>
       <c r="G4">
         <f>E9/1350</f>
-        <v>0.55925925925925923</v>
+        <v>0.75617283950617287</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <f>200-L2</f>
+        <v>21.666666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -532,25 +544,33 @@
       </c>
       <c r="E5">
         <f>AVERAGE(B2:B14)</f>
-        <v>97.5</v>
+        <v>97.916666666666671</v>
       </c>
       <c r="G5">
         <f>E9/1200</f>
-        <v>0.62916666666666665</v>
+        <v>0.85069444444444453</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <f>50*0.5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <f>N4+N5</f>
+        <v>46.666666666666657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -561,7 +581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -578,7 +598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -586,79 +606,109 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <f>E4+L2+L1</f>
+        <v>1020.8333333333334</v>
+      </c>
+      <c r="G9">
+        <f>1300*0.9</f>
+        <v>1170</v>
+      </c>
+      <c r="H9">
+        <f>1300*0.8</f>
+        <v>1040</v>
+      </c>
+      <c r="I9">
+        <f>1300*0.7</f>
+        <v>909.99999999999989</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <f>(12*50)+300+400</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
-        <f>E4+L2</f>
-        <v>755</v>
-      </c>
-      <c r="G9">
-        <f>1200*0.9</f>
-        <v>1080</v>
-      </c>
-      <c r="H9">
-        <f>1200*0.8</f>
-        <v>960</v>
-      </c>
-      <c r="I9">
-        <f>1200*0.7</f>
-        <v>840</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="G13">
         <f>1350*0.9</f>
         <v>1215</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <f>1350*0.8</f>
         <v>1080</v>
       </c>
-      <c r="I10">
+      <c r="I13">
         <f>1350*0.7</f>
         <v>944.99999999999989</v>
       </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <f>AVERAGE(B2:B11)</f>
-        <v>97.5</v>
+        <f>AVERAGE(B2:B13)</f>
+        <v>97.916666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <f>G9-E9</f>
+        <v>149.16666666666663</v>
+      </c>
+      <c r="F17">
+        <f>H9-E9</f>
+        <v>19.166666666666629</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <f>E17/200</f>
+        <v>0.74583333333333313</v>
+      </c>
+      <c r="F18">
+        <f>F17/200</f>
+        <v>9.5833333333333146E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CSCE 314 Grades.xlsx
+++ b/CSCE 314 Grades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801864FB-30E4-4AF3-8E4E-BB132D0BCD04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE976F10-5CA2-41EA-B06C-BD72A7E56DD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Flipped Labs</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>out of 1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I GOT AN A </t>
+  </si>
+  <si>
+    <t>wooh ooh oh yeah wooh ooh yeah wooh</t>
+  </si>
+  <si>
+    <t>yeah wooh</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -466,8 +475,8 @@
         <v>14</v>
       </c>
       <c r="L1">
-        <f>300*0.85</f>
-        <v>255</v>
+        <f>300*1</f>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -484,12 +493,8 @@
         <v>16</v>
       </c>
       <c r="L2">
-        <f>(53.5/60)*200</f>
-        <v>178.33333333333334</v>
-      </c>
-      <c r="M2">
-        <f>L2/200</f>
-        <v>0.89166666666666672</v>
+        <f>200*0.835</f>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -505,6 +510,10 @@
       <c r="K3" t="s">
         <v>16</v>
       </c>
+      <c r="L3">
+        <f>0.775*200</f>
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -522,14 +531,14 @@
       </c>
       <c r="G4">
         <f>E9/1350</f>
-        <v>0.75617283950617287</v>
+        <v>0.8959259259259259</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="N4">
         <f>200-L2</f>
-        <v>21.666666666666657</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -548,7 +557,7 @@
       </c>
       <c r="G5">
         <f>E9/1200</f>
-        <v>0.85069444444444453</v>
+        <v>1.0079166666666666</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -567,7 +576,7 @@
       </c>
       <c r="N6">
         <f>N4+N5</f>
-        <v>46.666666666666657</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -609,8 +618,8 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <f>E4+L2+L1</f>
-        <v>1020.8333333333334</v>
+        <f>E4+L2+L1+L3</f>
+        <v>1209.5</v>
       </c>
       <c r="G9">
         <f>1300*0.9</f>
@@ -691,24 +700,37 @@
         <v>97.916666666666671</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17">
         <f>G9-E9</f>
-        <v>149.16666666666663</v>
+        <v>-39.5</v>
       </c>
       <c r="F17">
         <f>H9-E9</f>
-        <v>19.166666666666629</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
+        <v>-169.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E18">
         <f>E17/200</f>
-        <v>0.74583333333333313</v>
+        <v>-0.19750000000000001</v>
       </c>
       <c r="F18">
         <f>F17/200</f>
-        <v>9.5833333333333146E-2</v>
+        <v>-0.84750000000000003</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
